--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIY Projects\SpaceKey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD252DFE-7126-4EB9-82A7-9740B6E91DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F431A9-B2C1-41CD-BD4E-93914A32829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{6B76E25F-A1E2-4F3F-BE3D-1863E2FB103F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>PI PICO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,19 +184,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平头螺丝(2*6mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>螺丝(M2*5mm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>螺丝(M3*10mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平头螺丝(M2*3mm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -226,6 +218,62 @@
   </si>
   <si>
     <t>注：可能有不准确或需要补充的，此文件随时更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5pin 1.25端子线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6pin 1.25端子线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=651652043242&amp;sku_properties=1627207:3682119;-1:-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=651652043242&amp;sku_properties=1627207:3419922;-1:-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5pin 1.25连接器（弯针）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6pin 1.25连接器（弯针）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4pin 2.54排针母座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=650722556422&amp;skuId=4699391953680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=650722556422&amp;skuId=4699391953710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=612678588888&amp;sku_properties=1627207:1655527036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫星轴（2U）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝(M2*3mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平头螺丝(M2*6mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝(M2*10mm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +336,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Microsoft YaHei UI Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Microsoft YaHei UI Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -326,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,14 +414,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -675,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C20CA2-260F-4272-A57D-655F5AFBAC64}">
-  <dimension ref="A2:E26"/>
+  <dimension ref="A2:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -707,7 +782,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -724,7 +799,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -741,7 +816,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
@@ -755,7 +830,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4">
@@ -769,7 +844,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -783,7 +858,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4">
@@ -797,7 +872,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -811,7 +886,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -825,7 +900,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -848,140 +923,218 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="11">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="3">
-        <v>15</v>
-      </c>
-      <c r="D15" s="9"/>
+      <c r="C15" s="11">
+        <v>5</v>
+      </c>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>39</v>
+      <c r="A16" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="3">
-        <v>4</v>
-      </c>
-      <c r="D16" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>41</v>
+      <c r="A17" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="3">
-        <v>15</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>35</v>
+      <c r="A18" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="3">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3">
         <v>6</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="3">
         <v>10</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="D26" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="3">
         <v>10</v>
       </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="3">
         <v>15</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3">
+      <c r="B29" s="4"/>
+      <c r="C29" s="3">
         <v>10</v>
       </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10</v>
+      </c>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C24" s="3">
-        <v>10</v>
-      </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D26" s="10" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D26:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -995,9 +1148,15 @@
     <hyperlink ref="D9" r:id="rId8" xr:uid="{811C31F5-48A5-4890-8085-E7EAF5129923}"/>
     <hyperlink ref="D10" r:id="rId9" xr:uid="{B2F8A1F7-6FD8-4248-AC77-3997ED3BC646}"/>
     <hyperlink ref="D11" r:id="rId10" xr:uid="{6EC51D56-C0AC-4A59-B74D-A6EB9A8C22BF}"/>
-    <hyperlink ref="D18" r:id="rId11" xr:uid="{798DD48E-5C28-44EE-BBC6-0B20CDDCFCD3}"/>
+    <hyperlink ref="D19" r:id="rId11" xr:uid="{798DD48E-5C28-44EE-BBC6-0B20CDDCFCD3}"/>
     <hyperlink ref="D13" r:id="rId12" display="https://guwanji.tmall.com/" xr:uid="{847975A1-5F74-4A63-809E-7FFAA8491511}"/>
-    <hyperlink ref="D17" r:id="rId13" xr:uid="{8900BA72-201B-4061-93F6-F6B5ADD449FE}"/>
+    <hyperlink ref="D18" r:id="rId13" xr:uid="{8900BA72-201B-4061-93F6-F6B5ADD449FE}"/>
+    <hyperlink ref="D20" r:id="rId14" xr:uid="{7BB611D7-135F-4CAE-B477-0085CE1C1A8B}"/>
+    <hyperlink ref="D21" r:id="rId15" xr:uid="{B333215D-9D78-4B93-867B-39DF6C9408C7}"/>
+    <hyperlink ref="D22" r:id="rId16" xr:uid="{E3665A47-D59E-4DC7-9E7D-F1970FF92D17}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{31A1179F-9726-4097-8717-0BC751D2B384}"/>
+    <hyperlink ref="D24" r:id="rId18" xr:uid="{C6F280EF-0041-4B95-9143-B075723D8885}"/>
+    <hyperlink ref="D14" r:id="rId19" display="https://guwanji.tmall.com/" xr:uid="{13C997D6-8C76-43CA-80CC-9B6167BC38D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIY Projects\SpaceKey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F431A9-B2C1-41CD-BD4E-93914A32829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A0A689-5C7D-4549-AB75-BAE74BEF1E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{6B76E25F-A1E2-4F3F-BE3D-1863E2FB103F}"/>
   </bookViews>
@@ -417,23 +417,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -753,7 +753,7 @@
   <dimension ref="A2:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -927,10 +927,10 @@
         <v>58</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>10</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -939,30 +939,30 @@
         <v>59</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="11">
-        <v>10</v>
-      </c>
-      <c r="D14" s="9"/>
+      <c r="C14" s="9">
+        <v>15</v>
+      </c>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>5</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="3">
-        <v>15</v>
-      </c>
-      <c r="D16" s="10"/>
+      <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -972,7 +972,7 @@
       <c r="C17" s="3">
         <v>4</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
@@ -999,62 +999,62 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="11">
+      <c r="B20" s="12"/>
+      <c r="C20" s="9">
         <v>1</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="11">
+      <c r="B21" s="12"/>
+      <c r="C21" s="9">
         <v>1</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="11">
+      <c r="B22" s="12"/>
+      <c r="C22" s="9">
         <v>1</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="11">
+      <c r="B23" s="12"/>
+      <c r="C23" s="9">
         <v>1</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="11">
+      <c r="B24" s="12"/>
+      <c r="C24" s="9">
         <v>1</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       <c r="C26" s="3">
         <v>10</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       <c r="C27" s="3">
         <v>10</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
@@ -1097,7 +1097,7 @@
       <c r="C28" s="3">
         <v>15</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -1107,7 +1107,7 @@
       <c r="C29" s="3">
         <v>10</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
@@ -1116,13 +1116,14 @@
       <c r="C30" s="3">
         <v>10</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="3">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9">
         <v>1</v>
       </c>
     </row>
